--- a/data/trans_orig/IP16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6048C01-F2AC-40F6-9490-8A58B26E7FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75817208-5BDA-4231-8EDC-5529C53848AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77825F82-AD6F-40EE-92ED-5403ADB3160E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4D0E9A1-B609-4F85-91F6-82C91F3D6DB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="144">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -191,13 +191,13 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>16,13%</t>
+    <t>16,4%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>9,34%</t>
+    <t>9,1%</t>
   </si>
   <si>
     <t>92,39%</t>
@@ -206,13 +206,13 @@
     <t>97,1%</t>
   </si>
   <si>
-    <t>83,87%</t>
+    <t>83,6%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>90,66%</t>
+    <t>90,9%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -257,10 +257,13 @@
     <t>0,45%</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>1,09%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -269,13 +272,16 @@
     <t>99,55%</t>
   </si>
   <si>
+    <t>97,74%</t>
+  </si>
+  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido pastillas para dormir en 2015 (Tasa respuesta: 17,45%)</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -377,13 +383,13 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,51%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>2,15%</t>
+    <t>2,0%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -392,13 +398,13 @@
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,49%</t>
+    <t>95,8%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>97,85%</t>
+    <t>98,0%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -407,13 +413,13 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>12,39%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>6,57%</t>
   </si>
   <si>
     <t>96,64%</t>
@@ -422,13 +428,13 @@
     <t>96,6%</t>
   </si>
   <si>
-    <t>87,61%</t>
+    <t>89,05%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>93,43%</t>
   </si>
   <si>
     <t>1,42%</t>
@@ -437,7 +443,7 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>0,67%</t>
@@ -446,13 +452,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,95%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>95,68%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -461,7 +467,7 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>98,11%</t>
+    <t>98,05%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -876,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB85B5-DF73-4A5C-B729-84B92CAD464F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55721DF0-D04D-40C2-9657-5FE3EC739387}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1777,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1537725B-C662-4020-9853-91B379E9BA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C9862D-F677-4E27-B1CB-7EFBCC49771A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2524,7 +2530,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2533,13 +2539,13 @@
         <v>656</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,7 +2563,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -2569,10 +2575,10 @@
         <v>146565</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2584,10 +2590,10 @@
         <v>304531</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -2666,7 +2672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD402E5-2595-4454-8C62-0CDAD88BCFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63515AA8-0749-4C83-8550-C4CDAD19C85B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2683,7 +2689,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2933,7 +2939,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2948,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2963,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,7 +2987,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2996,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3011,7 +3017,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3088,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3103,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3118,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3142,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -3151,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -3166,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -3243,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3258,7 +3264,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3273,7 +3279,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,7 +3297,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3306,7 +3312,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3321,7 +3327,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3398,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3428,7 +3434,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3452,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3461,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -3476,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -3555,7 +3561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C424F728-93DE-43BE-9577-0CB983177CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DFA0DD-21A8-4D2D-84FA-0331C8A3B446}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3572,7 +3578,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3822,7 +3828,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3837,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3852,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,7 +3876,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3885,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3900,7 +3906,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3977,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3986,13 +3992,13 @@
         <v>778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4001,13 +4007,13 @@
         <v>778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4031,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -4037,10 +4043,10 @@
         <v>100463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -4052,10 +4058,10 @@
         <v>214880</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -4132,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4141,13 +4147,13 @@
         <v>1408</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4156,13 +4162,13 @@
         <v>1408</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4186,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -4192,10 +4198,10 @@
         <v>39947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -4207,10 +4213,10 @@
         <v>83701</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -4287,7 +4293,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -4296,13 +4302,13 @@
         <v>2186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4311,13 +4317,13 @@
         <v>2186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,7 +4341,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -4347,13 +4353,13 @@
         <v>152226</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>473</v>
@@ -4362,13 +4368,13 @@
         <v>324762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A07-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75817208-5BDA-4231-8EDC-5529C53848AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FD9305-7A53-4A4D-915F-6FD924D4A647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4D0E9A1-B609-4F85-91F6-82C91F3D6DB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6C30344A-D23C-4DC7-BD76-FCAE45D98D92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="134">
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,10 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,90 +95,75 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
     <t>93,85%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
     <t>97,01%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>98,44%</t>
+  </si>
+  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>98,44%</t>
-  </si>
-  <si>
     <t>99,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>5,3%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
     <t>2,18%</t>
   </si>
   <si>
+    <t>94,7%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
     <t>97,82%</t>
   </si>
   <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>0,47%</t>
   </si>
   <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -185,289 +173,271 @@
     <t>Menores según si ha consumido pastillas para dormir en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
     <t>1,64%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
     <t>98,36%</t>
   </si>
   <si>
     <t>90,9%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
+    <t>98,51%</t>
+  </si>
+  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>98,51%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
     <t>1,81%</t>
   </si>
   <si>
+    <t>96,32%</t>
+  </si>
+  <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>96,32%</t>
-  </si>
-  <si>
     <t>98,19%</t>
   </si>
   <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
     <t>99,79%</t>
   </si>
   <si>
-    <t>98,91%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>8,27%</t>
+  </si>
+  <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
     <t>5,45%</t>
   </si>
   <si>
+    <t>91,73%</t>
+  </si>
+  <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
     <t>94,55%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
     <t>2,25%</t>
   </si>
   <si>
+    <t>95,66%</t>
+  </si>
+  <si>
     <t>95,45%</t>
   </si>
   <si>
-    <t>95,66%</t>
-  </si>
-  <si>
     <t>97,75%</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>99,01%</t>
+  </si>
+  <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
     <t>Menores según si ha consumido pastillas para dormir en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>5,16%</t>
   </si>
   <si>
+    <t>88,85%</t>
+  </si>
+  <si>
     <t>90,95%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
     <t>94,84%</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
     <t>1,1%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>98,9%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -882,8 +852,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55721DF0-D04D-40C2-9657-5FE3EC739387}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5800FA-6FFC-4D05-BCF9-70E4B1599E84}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1017,12 +987,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1040,56 +1012,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20258</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,52 +1072,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>22048</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>20258</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>42305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1161,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1176,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1191,58 +1167,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D8" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I8" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N8" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1251,54 +1227,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>20258</v>
+        <v>80707</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="I9" s="7">
-        <v>22048</v>
+        <v>87669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="N9" s="7">
-        <v>42305</v>
+        <v>168376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1316,7 +1292,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1331,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1346,58 +1322,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I11" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,54 +1382,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>87669</v>
+        <v>22551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>80707</v>
+        <v>35266</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="N12" s="7">
-        <v>168376</v>
+        <v>57816</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1486,7 +1462,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1501,58 +1477,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I14" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N14" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,216 +1537,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="D15" s="7">
-        <v>35266</v>
+        <v>125305</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7">
-        <v>22551</v>
+        <v>143193</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="N15" s="7">
-        <v>57816</v>
+        <v>268498</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>215</v>
-      </c>
-      <c r="D17" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>190</v>
-      </c>
-      <c r="I17" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>405</v>
-      </c>
-      <c r="N17" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>215</v>
-      </c>
-      <c r="D18" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>405</v>
-      </c>
-      <c r="N18" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1783,8 +1603,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C9862D-F677-4E27-B1CB-7EFBCC49771A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFC91CA-ECF8-4F50-B604-083EF2801805}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1800,7 +1620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1901,88 +1721,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>656</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>656</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21925</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>17500</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="N5" s="7">
+        <v>39425</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1991,48 +1823,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22581</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>17500</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>40081</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2050,88 +1888,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D8" s="7">
-        <v>17500</v>
+        <v>88236</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I8" s="7">
-        <v>21925</v>
+        <v>101034</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="N8" s="7">
-        <v>39425</v>
+        <v>189270</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,54 +1978,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7">
-        <v>17500</v>
+        <v>88236</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="I9" s="7">
-        <v>22581</v>
+        <v>101034</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="N9" s="7">
-        <v>40081</v>
+        <v>189270</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2205,7 +2043,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2220,7 +2058,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2235,58 +2073,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D11" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N11" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,72 +2133,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D12" s="7">
-        <v>101034</v>
+        <v>36404</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>88236</v>
+        <v>39433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>272</v>
+        <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>189270</v>
+        <v>75836</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2375,73 +2213,73 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>39433</v>
+        <v>146565</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="I14" s="7">
-        <v>36404</v>
+        <v>157966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>105</v>
+        <v>433</v>
       </c>
       <c r="N14" s="7">
-        <v>75836</v>
+        <v>304531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,216 +2288,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>39433</v>
+        <v>147221</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="I15" s="7">
-        <v>36404</v>
+        <v>157966</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="N15" s="7">
-        <v>75836</v>
+        <v>305187</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>656</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>656</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>222</v>
-      </c>
-      <c r="D17" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>211</v>
-      </c>
-      <c r="I17" s="7">
-        <v>146565</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>433</v>
-      </c>
-      <c r="N17" s="7">
-        <v>304531</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>222</v>
-      </c>
-      <c r="D18" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>212</v>
-      </c>
-      <c r="I18" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>434</v>
-      </c>
-      <c r="N18" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2672,8 +2354,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63515AA8-0749-4C83-8550-C4CDAD19C85B}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E085B196-4611-4F62-8DED-794F6F3436D3}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2689,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2792,86 +2474,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15691</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8786</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>24477</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,48 +2574,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15691</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8786</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="N6" s="7">
+        <v>24477</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2939,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2954,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2969,58 +2669,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I8" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N8" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,54 +2729,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="D9" s="7">
-        <v>8786</v>
+        <v>82979</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I9" s="7">
-        <v>15691</v>
+        <v>85620</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="N9" s="7">
-        <v>24477</v>
+        <v>168599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3094,7 +2794,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3109,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3124,58 +2824,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,54 +2884,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>85620</v>
+        <v>28792</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>82979</v>
+        <v>28870</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>168599</v>
+        <v>57661</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3249,7 +2949,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3264,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3279,58 +2979,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D14" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N14" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,216 +3039,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="D15" s="7">
-        <v>28870</v>
+        <v>127461</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7">
-        <v>28792</v>
+        <v>123276</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="N15" s="7">
-        <v>57661</v>
+        <v>250737</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>179</v>
-      </c>
-      <c r="D17" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>192</v>
-      </c>
-      <c r="I17" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>371</v>
-      </c>
-      <c r="N17" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>179</v>
-      </c>
-      <c r="D18" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>371</v>
-      </c>
-      <c r="N18" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3561,8 +3105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DFA0DD-21A8-4D2D-84FA-0331C8A3B446}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35842EC8-AADF-4D4B-85FB-D950216DF1C9}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3578,7 +3122,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3681,86 +3225,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15230</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15667</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N5" s="7">
+        <v>30897</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,66 +3325,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30897</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3843,73 +3405,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="D8" s="7">
-        <v>14366</v>
+        <v>120130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="N8" s="7">
-        <v>26182</v>
+        <v>240154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,153 +3480,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D9" s="7">
-        <v>14366</v>
+        <v>120843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I9" s="7">
-        <v>11816</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>26182</v>
+        <v>240867</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1405</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>778</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>778</v>
+        <v>1405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>114417</v>
+        <v>40237</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
-        <v>100463</v>
+        <v>46511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="N11" s="7">
-        <v>214880</v>
+        <v>86748</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,153 +3635,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
-        <v>114417</v>
+        <v>41642</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>101241</v>
+        <v>46511</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="N12" s="7">
-        <v>215658</v>
+        <v>88153</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1408</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1408</v>
+        <v>2118</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="D14" s="7">
-        <v>43754</v>
+        <v>175597</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>39947</v>
+        <v>182201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>120</v>
+        <v>473</v>
       </c>
       <c r="N14" s="7">
-        <v>83701</v>
+        <v>357798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,216 +3790,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>43754</v>
+        <v>177715</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>66</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7">
-        <v>41355</v>
+        <v>182201</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>85109</v>
+        <v>359916</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2186</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M16" s="7">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2186</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>250</v>
-      </c>
-      <c r="D17" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>223</v>
-      </c>
-      <c r="I17" s="7">
-        <v>152226</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" s="7">
-        <v>473</v>
-      </c>
-      <c r="N17" s="7">
-        <v>324762</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
-      <c r="I18" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>476</v>
-      </c>
-      <c r="N18" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
